--- a/9/1/1/4/Mensual 2009 a 2021 - Mensual.xlsx
+++ b/9/1/1/4/Mensual 2009 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>Serie</t>
   </si>
@@ -446,6 +446,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -803,7 +806,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G138"/>
+  <dimension ref="A1:G139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3983,6 +3986,29 @@
         <v>62.5</v>
       </c>
     </row>
+    <row r="139" spans="1:7">
+      <c r="A139" t="s">
+        <v>144</v>
+      </c>
+      <c r="B139">
+        <v>8258.780000000001</v>
+      </c>
+      <c r="C139">
+        <v>250.53</v>
+      </c>
+      <c r="D139">
+        <v>1752.95</v>
+      </c>
+      <c r="E139">
+        <v>5989.11</v>
+      </c>
+      <c r="F139">
+        <v>208.7</v>
+      </c>
+      <c r="G139">
+        <v>57.49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/9/1/1/4/Mensual 2009 a 2021 - Mensual.xlsx
+++ b/9/1/1/4/Mensual 2009 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <si>
     <t>Serie</t>
   </si>
@@ -449,6 +449,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -806,7 +809,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G139"/>
+  <dimension ref="A1:G140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2473,7 +2476,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>8417.120000000001</v>
+        <v>8417.129999999999</v>
       </c>
       <c r="C73">
         <v>306.5</v>
@@ -2482,7 +2485,7 @@
         <v>1608.27</v>
       </c>
       <c r="E73">
-        <v>6084.16</v>
+        <v>6084.17</v>
       </c>
       <c r="F73">
         <v>327.6</v>
@@ -3764,10 +3767,10 @@
         <v>7667.66</v>
       </c>
       <c r="C129">
-        <v>253.01</v>
+        <v>252.53</v>
       </c>
       <c r="D129">
-        <v>1468.16</v>
+        <v>1468.63</v>
       </c>
       <c r="E129">
         <v>5709.98</v>
@@ -3787,10 +3790,10 @@
         <v>7916.72</v>
       </c>
       <c r="C130">
-        <v>248.89</v>
+        <v>248</v>
       </c>
       <c r="D130">
-        <v>1568.05</v>
+        <v>1568.94</v>
       </c>
       <c r="E130">
         <v>5833.68</v>
@@ -3810,10 +3813,10 @@
         <v>8026.22</v>
       </c>
       <c r="C131">
-        <v>234.57</v>
+        <v>233.68</v>
       </c>
       <c r="D131">
-        <v>1588.14</v>
+        <v>1589.03</v>
       </c>
       <c r="E131">
         <v>5927.28</v>
@@ -3833,10 +3836,10 @@
         <v>8121.42</v>
       </c>
       <c r="C132">
-        <v>237.25</v>
+        <v>236.66</v>
       </c>
       <c r="D132">
-        <v>1610.63</v>
+        <v>1611.22</v>
       </c>
       <c r="E132">
         <v>6000.74</v>
@@ -4007,6 +4010,29 @@
       </c>
       <c r="G139">
         <v>57.49</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" t="s">
+        <v>145</v>
+      </c>
+      <c r="B140">
+        <v>8345.24</v>
+      </c>
+      <c r="C140">
+        <v>254.08</v>
+      </c>
+      <c r="D140">
+        <v>1791.54</v>
+      </c>
+      <c r="E140">
+        <v>6028.97</v>
+      </c>
+      <c r="F140">
+        <v>212.04</v>
+      </c>
+      <c r="G140">
+        <v>58.61</v>
       </c>
     </row>
   </sheetData>
